--- a/output/risk/TWN_osm_fl_risk.xlsx
+++ b/output/risk/TWN_osm_fl_risk.xlsx
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1956667104.920839</v>
+        <v>1969163036.699543</v>
       </c>
       <c r="C3" t="n">
-        <v>2598842791.756938</v>
+        <v>2602886220.450687</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5313279.909809661</v>
+        <v>5538980.330819745</v>
       </c>
       <c r="C4" t="n">
-        <v>6924928.741634198</v>
+        <v>7100049.906343766</v>
       </c>
     </row>
     <row r="5">

--- a/output/risk/TWN_osm_fl_risk.xlsx
+++ b/output/risk/TWN_osm_fl_risk.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="line_risk" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="plant_risk" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="substation_risk" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="tower_risk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pole_risk" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,58 +450,322 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>36975.34439514048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54009.1779881274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>lower_risk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19522.61815432023</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26179.53303909169</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>upper_risk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>67387.80503687025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>104458.0386062727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rcp8p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>642729008.5274855</v>
+      </c>
+      <c r="C2" t="n">
+        <v>853671862.0474365</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>lower_risk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>482046756.395614</v>
+      </c>
+      <c r="C3" t="n">
+        <v>640253896.5355773</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>upper_risk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>803411260.6593568</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1067089827.559296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rcp8p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6895997.694161309</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8987723.862688707</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>lower_risk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5171998.270620981</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6740792.897016531</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>upper_risk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8619997.117701637</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11234654.82836089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rcp8p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>132315.8115881768</v>
+      </c>
+      <c r="C2" t="n">
+        <v>179535.9734914216</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>lower_risk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>99236.85869113258</v>
+      </c>
+      <c r="C3" t="n">
+        <v>134651.9801185662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>upper_risk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>165394.764485221</v>
+      </c>
+      <c r="C4" t="n">
+        <v>224419.966864277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rcp8p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_risk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>105424.8908118683</v>
-      </c>
       <c r="C2" t="n">
-        <v>136900.6743702326</v>
+        <v>0.4835829196380592</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>lower_risk</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>1969163036.699543</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2602886220.450687</v>
+        <v>0.3626871897285443</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>upper_risk</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>5538980.330819745</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7100049.906343766</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>145221.7025247145</v>
-      </c>
-      <c r="C5" t="n">
-        <v>197047.6500269299</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1953943454120179</v>
+        <v>0.604478649547574</v>
       </c>
     </row>
   </sheetData>
